--- a/Data/CropMarketModule_ex.xlsx
+++ b/Data/CropMarketModule_ex.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/WHATIF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="14_{79351874-569B-4706-B69F-2D1710ED8D20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{44EDAA70-842E-4FD3-9722-22A80231DBAC}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{E47031A7-A9FA-48DF-91B1-7059A6C20511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08AA0B6C-F3A9-4DB9-9BD6-F3933C9D91B7}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="345" windowWidth="19185" windowHeight="10200" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
     <sheet name="CropMarkets" sheetId="2" r:id="rId2"/>
     <sheet name="CropDem" sheetId="4" r:id="rId3"/>
-    <sheet name="CropMinDem" sheetId="6" r:id="rId4"/>
-    <sheet name="CropValue" sheetId="7" r:id="rId5"/>
+    <sheet name="CropValue" sheetId="7" r:id="rId4"/>
+    <sheet name="CropMinDem" sheetId="6" r:id="rId5"/>
     <sheet name="CropTransport" sheetId="10" r:id="rId6"/>
     <sheet name="TransportCost" sheetId="11" r:id="rId7"/>
     <sheet name="DemElasticity" sheetId="5" r:id="rId8"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>cmarket_type</t>
   </si>
@@ -64,9 +66,6 @@
     <t>maize</t>
   </si>
   <si>
-    <t>cassava</t>
-  </si>
-  <si>
     <t>https://www.ifpri.org/publication/impact-projections-demand-agricultural-products-extended-country-level-results-2017-gfpr</t>
   </si>
   <si>
@@ -202,21 +201,9 @@
     <t>Future demand (2030, 2050):</t>
   </si>
   <si>
-    <t>aCropDem: http://www.fao.org/faostat , Food Balance Sheet, Domestic Supply quantity</t>
-  </si>
-  <si>
     <t>Food security constraints</t>
   </si>
   <si>
-    <t xml:space="preserve">REM: The food security constraint is to fulfill the demand for </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cereals, roots and pulses (also when import costs are higher </t>
-  </si>
-  <si>
-    <t>than the willingness-to-pay of demand)</t>
-  </si>
-  <si>
     <t>$/t</t>
   </si>
   <si>
@@ -244,9 +231,6 @@
     <t xml:space="preserve"> #Crop transport loss </t>
   </si>
   <si>
-    <t>REM: A crop transport route is considered between all crop markets of neighboring countries</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -265,9 +249,6 @@
     <t>WakandaMarket</t>
   </si>
   <si>
-    <t>Road1</t>
-  </si>
-  <si>
     <t>aMarkMarg</t>
   </si>
   <si>
@@ -280,13 +261,139 @@
     <t>external crop supply curve (out of the study area) - Leave blank otherwise</t>
   </si>
   <si>
-    <t>WorldMarket</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Road2</t>
+    <t>DemElasticity</t>
+  </si>
+  <si>
+    <t>aDemEla</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>sCropDem</t>
+  </si>
+  <si>
+    <t>sCropVal</t>
+  </si>
+  <si>
+    <t>dummyroad</t>
+  </si>
+  <si>
+    <t>Crop markets are the smallest unit of crop trade and demand</t>
+  </si>
+  <si>
+    <t>Farming zone produce to a specific crop market, and trade can occur between markets (CropTransport)</t>
+  </si>
+  <si>
+    <t>Crop markets are typically at the national scale, but several markets per country can be represented</t>
+  </si>
+  <si>
+    <t>Here it is assumed to be a share of the producer costs (and not of the price as typically)</t>
+  </si>
+  <si>
+    <t>Marketing margins (aMarkMarg) represent the costs of bringing crops to the market from the farm gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.fao.org/faostat , Food Balance Sheet, Domestic Supply quantity</t>
+  </si>
+  <si>
+    <t>Potential sources:</t>
+  </si>
+  <si>
+    <t>Crop demand is the demand at the price indicated in CropValue</t>
+  </si>
+  <si>
+    <t>If own-price elasticity is considered (see option "Crop demand elasticity" and sheet DemElasticity) the demand curve is endogenous to the model</t>
+  </si>
+  <si>
+    <t>Units are 1000 tons per year</t>
+  </si>
+  <si>
+    <t>rows are crop markets and columns are crops</t>
+  </si>
+  <si>
+    <t>This feature needs to be activated in option "Minimum supply"</t>
+  </si>
+  <si>
+    <t>Minimum demand is the minimum food supply that has to be reached for food security constraints (e.g. cereals, roots and pulses - also when import costs are above the price)</t>
+  </si>
+  <si>
+    <t>If no external market is represented this can lead to infeasibility constraints</t>
+  </si>
+  <si>
+    <t>Unit is 1000 tons per year</t>
+  </si>
+  <si>
+    <t>Rows are crop markets, columns are crops (if used, all crops must be present ! - with 0 if no constraint apply to that specific crop)</t>
+  </si>
+  <si>
+    <t>Crop transport routes connect an exporting (aTransIn) to an importing (aTransOut) crop market</t>
+  </si>
+  <si>
+    <t>A transport route is unidirectional, thus 2 routes need to be defined between two markets</t>
+  </si>
+  <si>
+    <t>If market A is connected to B, which is connected to C, market A and C will be able to trade through B (or directly if a route between A and C is represented)</t>
+  </si>
+  <si>
+    <t>A share of the crops are lossed (aTransLoss)</t>
+  </si>
+  <si>
+    <t>Transport costs occur and are defined in TransportCost</t>
+  </si>
+  <si>
+    <t>Transport costs are crop specific costs of trade between two markets</t>
+  </si>
+  <si>
+    <t>In practice they can be used to represent different effects</t>
+  </si>
+  <si>
+    <t>Specific import/export prices of crop markets from/to the same world market</t>
+  </si>
+  <si>
+    <t>Bans on import/export of specific crops (by setting a high cost for that crop)</t>
+  </si>
+  <si>
+    <t>Units are $ per tons</t>
+  </si>
+  <si>
+    <t>Elasticity is own-price elasticity of crop demand</t>
+  </si>
+  <si>
+    <t>This feature needs to be activated in option "Crop demand Elasticity"</t>
+  </si>
+  <si>
+    <r>
+      <t>Consumer Surplus = P0(D+1/e*(D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/2D0-D)) - P*D</t>
+    </r>
+  </si>
+  <si>
+    <t>Price(D)=P0*(1+1/e*(D-D0)/D0)   where D0, P0 are itercept demand and price filled here and e the elasticity</t>
   </si>
 </sst>
 </file>
@@ -298,7 +405,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -379,12 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -397,8 +498,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -553,7 +661,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -601,7 +708,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,8 +717,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -620,7 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -631,6 +736,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,10 +1018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -928,12 +1037,12 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -941,62 +1050,62 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>1</v>
       </c>
       <c r="E7">
@@ -1007,85 +1116,91 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>1</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
       <c r="E11">
@@ -1096,26 +1211,46 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>21</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="49">
         <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1155,15 +1290,15 @@
       <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="A4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1174,7 +1309,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1183,13 +1318,13 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>78</v>
+      <c r="A6" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1198,13 +1333,13 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>79</v>
+      <c r="A7" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1213,13 +1348,13 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
+      <c r="A8" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1228,24 +1363,28 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1258,7 +1397,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1271,7 +1410,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1280,11 +1419,13 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1293,11 +1434,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1306,11 +1449,13 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1323,7 +1468,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1336,7 +1481,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1345,11 +1490,11 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1362,34 +1507,34 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>71</v>
+      <c r="C20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>69</v>
+      <c r="B21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1403,35 +1548,21 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1442,23 +1573,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12"/>
+    <row r="1" spans="2:23" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -1470,13 +1600,13 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
-      <c r="V1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B2" s="28" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1489,15 +1619,15 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
-      <c r="V2" s="12"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="W2" s="12"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B3" s="28"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1506,48 +1636,45 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
-      <c r="V3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="O3" s="12"/>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="12"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1559,20 +1686,17 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1585,178 +1709,198 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="12"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="12"/>
+    </row>
+    <row r="7" spans="2:23" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="12"/>
-    </row>
-    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="2:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="60"/>
-    </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G9" s="10"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="34"/>
-    </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G10" s="10"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="34"/>
-    </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G11" s="10"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="34"/>
-    </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G12" s="10"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="34"/>
-    </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G13" s="10"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="34"/>
-    </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G14" s="10"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="34"/>
-    </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="58"/>
+    </row>
+    <row r="9" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="33"/>
+    </row>
+    <row r="10" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="33"/>
+    </row>
+    <row r="11" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H11" s="10"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="33"/>
+    </row>
+    <row r="12" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="33"/>
+    </row>
+    <row r="13" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="33"/>
+    </row>
+    <row r="14" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="33"/>
+    </row>
+    <row r="15" spans="2:23" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="33"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1770,20 +1914,20 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="60"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="58"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1793,21 +1937,21 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="15"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -1817,16 +1961,16 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="C19" s="28"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1843,16 +1987,16 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="12"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B20" s="24"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1868,22 +2012,22 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="12"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1897,18 +2041,510 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="1:28" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="9">
+        <v>70</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="12"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="9">
+        <f>C23*0.7</f>
+        <v>49</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="9">
+        <f>1.3*C23</f>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:U61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C3" s="28"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="35"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="31"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="31"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="31"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="31"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="31"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="31"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="31"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="31"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="31"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="31"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="31"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="31"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B17" s="43"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="31"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="29"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B19" s="28"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B20" s="24"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1920,104 +2556,596 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>407.69746835443038</v>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="9">
-        <v>39.179746835443034</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+        <v>600</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
-        <v>100</v>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="9">
-        <v>100</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C25" s="27"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="D26" s="1"/>
+        <f>0.7*C23</f>
+        <v>420</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="9">
+        <f>1.3*C23</f>
+        <v>780</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+    </row>
+    <row r="33" spans="3:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="3:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="3:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="3:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+    </row>
+    <row r="37" spans="3:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+    </row>
+    <row r="38" spans="3:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+    </row>
+    <row r="39" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:21" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="7:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+    </row>
+    <row r="52" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+    </row>
+    <row r="53" spans="7:14" x14ac:dyDescent="0.15">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G54" s="55"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="55"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G56" s="55"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G57" s="55"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G58" s="55"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G59" s="55"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G60" s="55"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="7:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="G61" s="55"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId1" location="/dataset/domestic" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2026,8 +3154,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>18</v>
+      <c r="A1" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2048,8 +3176,8 @@
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
+      <c r="A2" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2070,11 +3198,11 @@
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -2090,23 +3218,23 @@
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -2114,101 +3242,105 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
+      <c r="A6" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="32"/>
+      <c r="M9" s="31"/>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -2216,15 +3348,15 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -2232,15 +3364,15 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -2248,15 +3380,15 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -2264,15 +3396,15 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -2280,15 +3412,15 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -2296,15 +3428,15 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.15">
@@ -2312,39 +3444,39 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -2361,12 +3493,12 @@
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -2382,16 +3514,16 @@
       <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="2"/>
@@ -2407,13 +3539,10 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
@@ -2435,1858 +3564,784 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9">
-        <v>20</v>
-      </c>
-      <c r="C23" s="9">
-        <v>10</v>
-      </c>
-      <c r="D23" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="D23" s="16"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="17"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
     </row>
     <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
     </row>
     <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
     </row>
     <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
     </row>
     <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
     </row>
     <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
     </row>
     <row r="37" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
     </row>
     <row r="38" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
     </row>
     <row r="39" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
     </row>
     <row r="40" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
     </row>
     <row r="41" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
     </row>
     <row r="42" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
     </row>
     <row r="43" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
     </row>
     <row r="45" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
     </row>
     <row r="46" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
     </row>
     <row r="47" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
     </row>
     <row r="48" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-    </row>
-    <row r="49" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-    </row>
-    <row r="50" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-    </row>
-    <row r="58" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+    </row>
+    <row r="49" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T64"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="29"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="32"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>278</v>
-      </c>
-      <c r="C23" s="9">
-        <v>280.77137350609797</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
-        <v>300</v>
-      </c>
-      <c r="C24" s="9">
-        <v>300</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-    </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-    </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-    </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-    </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-    </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-    </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-    </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-    </row>
-    <row r="33" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-    </row>
-    <row r="34" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-    </row>
-    <row r="35" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-    </row>
-    <row r="36" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-    </row>
-    <row r="37" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-    </row>
-    <row r="38" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-    </row>
-    <row r="39" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-    </row>
-    <row r="40" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-    </row>
-    <row r="41" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-    </row>
-    <row r="42" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="2:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-    </row>
-    <row r="55" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F57" s="57"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F58" s="57"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F59" s="57"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F60" s="57"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F61" s="57"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F62" s="57"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F63" s="57"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F64" s="57"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="/dataset/domestic" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:CX33"/>
+  <dimension ref="A1:CX32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4300,12 +4355,12 @@
   <sheetData>
     <row r="1" spans="1:102" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="12"/>
@@ -4508,13 +4563,13 @@
       <c r="CX3" s="12"/>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4617,7 +4672,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4717,13 +4772,13 @@
       <c r="CX5" s="12"/>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
+      <c r="A6" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -4823,11 +4878,13 @@
       <c r="CX6" s="12"/>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4927,11 +4984,13 @@
       <c r="CX7" s="12"/>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5031,11 +5090,13 @@
       <c r="CX8" s="12"/>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5135,11 +5196,13 @@
       <c r="CX9" s="12"/>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+      <c r="A10" s="65" t="s">
+        <v>101</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5239,11 +5302,11 @@
       <c r="CX10" s="12"/>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5343,11 +5406,11 @@
       <c r="CX11" s="12"/>
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5447,11 +5510,11 @@
       <c r="CX12" s="12"/>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5555,7 +5618,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5656,7 +5719,7 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5756,11 +5819,11 @@
       <c r="CX15" s="12"/>
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5860,11 +5923,11 @@
       <c r="CX16" s="12"/>
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5964,11 +6027,11 @@
       <c r="CX17" s="12"/>
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -6169,90 +6232,79 @@
     </row>
     <row r="20" spans="1:102" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="46"/>
+      <c r="B21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>23</v>
+      <c r="A22" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:102" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
@@ -6265,9 +6317,6 @@
     </row>
     <row r="32" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6276,10 +6325,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6288,8 +6337,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>27</v>
+      <c r="A1" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6313,8 +6362,8 @@
       <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>26</v>
+      <c r="A2" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -6338,11 +6387,11 @@
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -6361,236 +6410,247 @@
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="32"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -6609,12 +6669,12 @@
       <c r="U19" s="12"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -6632,16 +6692,16 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="2"/>
@@ -6649,25 +6709,23 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="49" t="s">
-        <v>23</v>
+      <c r="A22" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6678,632 +6736,615 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="17">
-        <f>I23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17"/>
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="17">
-        <v>5</v>
-      </c>
-      <c r="C24" s="17">
-        <v>5</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
     </row>
     <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-    </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-    </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
     </row>
     <row r="48" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+    </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -7312,13 +7353,13 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M61" s="42"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -7327,11 +7368,11 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="43"/>
+      <c r="M62" s="16"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
@@ -7342,11 +7383,11 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="17"/>
+      <c r="M63" s="16"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
@@ -7357,11 +7398,11 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="17"/>
+      <c r="M64" s="16"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
@@ -7372,11 +7413,11 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="17"/>
+      <c r="M65" s="16"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
@@ -7387,11 +7428,11 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="17"/>
+      <c r="M66" s="16"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
@@ -7402,11 +7443,11 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="17"/>
+      <c r="M67" s="16"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
@@ -7417,11 +7458,11 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="17"/>
+      <c r="M68" s="16"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
@@ -7432,11 +7473,11 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="17"/>
+      <c r="M69" s="16"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
@@ -7447,26 +7488,11 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="M70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7475,10 +7501,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7487,8 +7513,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>17</v>
+      <c r="A1" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -7509,8 +7535,8 @@
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
+      <c r="A2" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -7531,11 +7557,11 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7551,23 +7577,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -7575,79 +7601,87 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="32"/>
+      <c r="M9" s="31"/>
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -7655,15 +7689,15 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -7671,15 +7705,15 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -7687,15 +7721,15 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -7703,15 +7737,15 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -7719,15 +7753,15 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -7735,15 +7769,15 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -7751,15 +7785,15 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
@@ -7767,35 +7801,35 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -7811,12 +7845,12 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -7834,14 +7868,14 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="2"/>
@@ -7851,21 +7885,18 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
@@ -7880,64 +7911,46 @@
       <c r="M22" s="2"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="52">
-        <f>-0.2</f>
-        <v>-0.2</v>
-      </c>
-      <c r="C23" s="52">
-        <f t="shared" ref="C23" si="0">-0.2</f>
-        <v>-0.2</v>
-      </c>
-      <c r="D23" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="B23" s="50">
+        <f>-0.3</f>
+        <v>-0.3</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -7951,12 +7964,6 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E26" s="1"/>
@@ -7993,13 +8000,6 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/CropMarketModule_ex.xlsx
+++ b/Data/CropMarketModule_ex.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\WHATIF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cowi-my.sharepoint.com/personal/rapy_cowi_com/Documents/WHATIF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="14_{79351874-569B-4706-B69F-2D1710ED8D20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{44EDAA70-842E-4FD3-9722-22A80231DBAC}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{E47031A7-A9FA-48DF-91B1-7059A6C20511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{547308F3-7B19-4C21-BC79-D2EFCA23EDA1}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="345" windowWidth="19185" windowHeight="10200" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
     <sheet name="CropMarkets" sheetId="2" r:id="rId2"/>
     <sheet name="CropDem" sheetId="4" r:id="rId3"/>
-    <sheet name="CropMinDem" sheetId="6" r:id="rId4"/>
-    <sheet name="CropValue" sheetId="7" r:id="rId5"/>
+    <sheet name="CropValue" sheetId="7" r:id="rId4"/>
+    <sheet name="CropMinDem" sheetId="6" r:id="rId5"/>
     <sheet name="CropTransport" sheetId="10" r:id="rId6"/>
     <sheet name="TransportCost" sheetId="11" r:id="rId7"/>
     <sheet name="DemElasticity" sheetId="5" r:id="rId8"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>cmarket_type</t>
   </si>
@@ -64,9 +66,6 @@
     <t>maize</t>
   </si>
   <si>
-    <t>cassava</t>
-  </si>
-  <si>
     <t>https://www.ifpri.org/publication/impact-projections-demand-agricultural-products-extended-country-level-results-2017-gfpr</t>
   </si>
   <si>
@@ -202,21 +201,9 @@
     <t>Future demand (2030, 2050):</t>
   </si>
   <si>
-    <t>aCropDem: http://www.fao.org/faostat , Food Balance Sheet, Domestic Supply quantity</t>
-  </si>
-  <si>
     <t>Food security constraints</t>
   </si>
   <si>
-    <t xml:space="preserve">REM: The food security constraint is to fulfill the demand for </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cereals, roots and pulses (also when import costs are higher </t>
-  </si>
-  <si>
-    <t>than the willingness-to-pay of demand)</t>
-  </si>
-  <si>
     <t>$/t</t>
   </si>
   <si>
@@ -244,9 +231,6 @@
     <t xml:space="preserve"> #Crop transport loss </t>
   </si>
   <si>
-    <t>REM: A crop transport route is considered between all crop markets of neighboring countries</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -265,9 +249,6 @@
     <t>WakandaMarket</t>
   </si>
   <si>
-    <t>Road1</t>
-  </si>
-  <si>
     <t>aMarkMarg</t>
   </si>
   <si>
@@ -280,13 +261,124 @@
     <t>external crop supply curve (out of the study area) - Leave blank otherwise</t>
   </si>
   <si>
-    <t>WorldMarket</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Road2</t>
+    <t>DemElasticity</t>
+  </si>
+  <si>
+    <t>aDemEla</t>
+  </si>
+  <si>
+    <t>dummyroad</t>
+  </si>
+  <si>
+    <t>Crop markets are the smallest unit of crop trade and demand</t>
+  </si>
+  <si>
+    <t>Farming zone produce to a specific crop market, and trade can occur between markets (CropTransport)</t>
+  </si>
+  <si>
+    <t>Crop markets are typically at the national scale, but several markets per country can be represented</t>
+  </si>
+  <si>
+    <t>Here it is assumed to be a share of the producer costs (and not of the price as typically)</t>
+  </si>
+  <si>
+    <t>Marketing margins (aMarkMarg) represent the costs of bringing crops to the market from the farm gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.fao.org/faostat , Food Balance Sheet, Domestic Supply quantity</t>
+  </si>
+  <si>
+    <t>Potential sources:</t>
+  </si>
+  <si>
+    <t>Crop demand is the demand at the price indicated in CropValue</t>
+  </si>
+  <si>
+    <t>If own-price elasticity is considered (see option "Crop demand elasticity" and sheet DemElasticity) the demand curve is endogenous to the model</t>
+  </si>
+  <si>
+    <t>Units are 1000 tons per year</t>
+  </si>
+  <si>
+    <t>rows are crop markets and columns are crops</t>
+  </si>
+  <si>
+    <t>This feature needs to be activated in option "Minimum supply"</t>
+  </si>
+  <si>
+    <t>Minimum demand is the minimum food supply that has to be reached for food security constraints (e.g. cereals, roots and pulses - also when import costs are above the price)</t>
+  </si>
+  <si>
+    <t>If no external market is represented this can lead to infeasibility constraints</t>
+  </si>
+  <si>
+    <t>Unit is 1000 tons per year</t>
+  </si>
+  <si>
+    <t>Rows are crop markets, columns are crops (if used, all crops must be present ! - with 0 if no constraint apply to that specific crop)</t>
+  </si>
+  <si>
+    <t>Crop transport routes connect an exporting (aTransIn) to an importing (aTransOut) crop market</t>
+  </si>
+  <si>
+    <t>A transport route is unidirectional, thus 2 routes need to be defined between two markets</t>
+  </si>
+  <si>
+    <t>If market A is connected to B, which is connected to C, market A and C will be able to trade through B (or directly if a route between A and C is represented)</t>
+  </si>
+  <si>
+    <t>A share of the crops are lossed (aTransLoss)</t>
+  </si>
+  <si>
+    <t>Transport costs occur and are defined in TransportCost</t>
+  </si>
+  <si>
+    <t>Transport costs are crop specific costs of trade between two markets</t>
+  </si>
+  <si>
+    <t>In practice they can be used to represent different effects</t>
+  </si>
+  <si>
+    <t>Specific import/export prices of crop markets from/to the same world market</t>
+  </si>
+  <si>
+    <t>Bans on import/export of specific crops (by setting a high cost for that crop)</t>
+  </si>
+  <si>
+    <t>Units are $ per tons</t>
+  </si>
+  <si>
+    <t>Elasticity is own-price elasticity of crop demand</t>
+  </si>
+  <si>
+    <t>This feature needs to be activated in option "Crop demand Elasticity"</t>
+  </si>
+  <si>
+    <r>
+      <t>Consumer Surplus = P0(D+1/e*(D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/2D0-D)) - P*D</t>
+    </r>
+  </si>
+  <si>
+    <t>Price(D)=P0*(1+1/e*(D-D0)/D0)   where D0, P0 are itercept demand and price filled here and e the elasticity</t>
   </si>
 </sst>
 </file>
@@ -298,7 +390,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -379,12 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -397,8 +483,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +519,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -553,7 +646,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -601,7 +693,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,8 +702,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -620,7 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -630,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,10 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -928,12 +1021,12 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -941,62 +1034,62 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>1</v>
       </c>
       <c r="E7">
@@ -1007,85 +1100,85 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>1</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>1</v>
       </c>
       <c r="E11">
@@ -1096,26 +1189,46 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>21</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="49">
         <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1155,15 +1268,15 @@
       <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="A4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1174,7 +1287,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1183,13 +1296,13 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>78</v>
+      <c r="A6" t="s">
+        <v>76</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1198,13 +1311,13 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>79</v>
+      <c r="A7" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1213,13 +1326,13 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
+      <c r="A8" t="s">
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1228,24 +1341,28 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1258,7 +1375,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1271,7 +1388,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1280,11 +1397,13 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1293,11 +1412,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1306,11 +1427,13 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1323,7 +1446,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1336,7 +1459,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1345,11 +1468,11 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1362,34 +1485,34 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>71</v>
+      <c r="C20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>69</v>
+      <c r="B21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1403,35 +1526,21 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1442,21 +1551,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>16</v>
+      <c r="A1" s="39" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1473,8 +1582,8 @@
       <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
+      <c r="A2" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1492,11 +1601,11 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1509,44 +1618,41 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="59"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="57"/>
       <c r="V4" s="12"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1559,18 +1665,15 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="60"/>
+      <c r="U5" s="58"/>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="13"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1585,176 +1688,196 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="60"/>
+      <c r="U6" s="58"/>
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="60"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="58"/>
       <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="14"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="34"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="34"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="34"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="34"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="34"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G11" s="10"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="34"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="34"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="34"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="34"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="34"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="34"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="34"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="34"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:22" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="34"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="34"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="14"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1770,15 +1893,15 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="60"/>
+      <c r="U16" s="58"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1793,20 +1916,20 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="60"/>
+      <c r="U17" s="58"/>
       <c r="V17" s="12"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -1817,15 +1940,15 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="61"/>
+      <c r="U18" s="59"/>
       <c r="V18" s="12"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1845,13 +1968,13 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1870,17 +1993,17 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="2"/>
@@ -1899,13 +2022,10 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
@@ -1931,102 +2051,61 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9">
-        <v>407.69746835443038</v>
-      </c>
-      <c r="C23" s="9">
-        <v>39.179746835443034</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
-        <v>100</v>
-      </c>
-      <c r="C24" s="9">
-        <v>100</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C25" s="27"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AA68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="12"/>
@@ -2048,8 +2127,8 @@
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
+      <c r="A2" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2070,11 +2149,11 @@
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -2090,261 +2169,255 @@
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
+      <c r="A8" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="32"/>
+      <c r="M9" s="31"/>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -2360,20 +2433,20 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -2381,19 +2454,18 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2406,14 +2478,11 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
@@ -2426,834 +2495,548 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="N22" s="12"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9">
-        <v>20</v>
-      </c>
-      <c r="C23" s="9">
-        <v>10</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-    </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-    </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-    </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-    </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-    </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-    </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-    </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-    </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-    </row>
-    <row r="33" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-    </row>
-    <row r="34" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-    </row>
-    <row r="36" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-    </row>
-    <row r="37" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-    </row>
-    <row r="38" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-    </row>
-    <row r="39" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-    </row>
-    <row r="40" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-    </row>
-    <row r="41" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-    </row>
-    <row r="42" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-    </row>
-    <row r="43" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-    </row>
-    <row r="44" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-    </row>
-    <row r="45" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-    </row>
-    <row r="46" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-    </row>
-    <row r="47" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-    </row>
-    <row r="48" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-    </row>
-    <row r="49" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-    </row>
-    <row r="50" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-    </row>
-    <row r="58" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
+        <v>600</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+    </row>
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+    </row>
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+    </row>
+    <row r="37" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="6:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+    </row>
+    <row r="50" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.15">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F52" s="55"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F53" s="55"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F54" s="55"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F55" s="55"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F56" s="55"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F57" s="55"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F58" s="55"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="6:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="F59" s="55"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" location="/dataset/domestic" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>19</v>
+      <c r="A1" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -3274,8 +3057,8 @@
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>64</v>
+      <c r="A2" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3296,11 +3079,11 @@
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -3316,255 +3099,265 @@
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
       <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
       <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
+      <c r="A6" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
-        <v>60</v>
+      <c r="A8" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>61</v>
+      <c r="A9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="32"/>
+      <c r="M9" s="31"/>
       <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -3580,20 +3373,20 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -3601,18 +3394,19 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3625,14 +3419,11 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
@@ -3645,648 +3436,793 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.15">
+      <c r="N22" s="2"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9">
-        <v>278</v>
-      </c>
-      <c r="C23" s="9">
-        <v>280.77137350609797</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
-        <v>300</v>
-      </c>
-      <c r="C24" s="9">
-        <v>300</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-    </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-    </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-    </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-    </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-    </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-    </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-    </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-    </row>
-    <row r="33" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-    </row>
-    <row r="34" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-    </row>
-    <row r="35" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-    </row>
-    <row r="36" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-    </row>
-    <row r="37" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-    </row>
-    <row r="38" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-    </row>
-    <row r="39" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-    </row>
-    <row r="40" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-    </row>
-    <row r="41" spans="2:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-    </row>
-    <row r="42" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+    </row>
+    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+    </row>
+    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+    </row>
+    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+    </row>
+    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+    </row>
+    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+    </row>
+    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+    </row>
+    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+    </row>
+    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+    </row>
+    <row r="34" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+    </row>
+    <row r="35" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+    </row>
+    <row r="36" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+    </row>
+    <row r="37" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+    </row>
+    <row r="38" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+    </row>
+    <row r="39" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+    </row>
+    <row r="40" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+    </row>
+    <row r="41" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+    </row>
+    <row r="42" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+    </row>
+    <row r="43" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+    </row>
+    <row r="44" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+    </row>
+    <row r="45" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+    </row>
+    <row r="46" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+    </row>
+    <row r="47" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+    </row>
+    <row r="48" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
     </row>
     <row r="49" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="2:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-    </row>
-    <row r="55" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F57" s="57"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F58" s="57"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F59" s="57"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F60" s="57"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F61" s="57"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F62" s="57"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F63" s="57"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="F64" s="57"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="/dataset/domestic" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:CX33"/>
+  <dimension ref="A1:CX32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4300,12 +4236,12 @@
   <sheetData>
     <row r="1" spans="1:102" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="12"/>
@@ -4508,13 +4444,13 @@
       <c r="CX3" s="12"/>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4617,7 +4553,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4717,13 +4653,13 @@
       <c r="CX5" s="12"/>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
+      <c r="A6" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -4823,11 +4759,13 @@
       <c r="CX6" s="12"/>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4927,11 +4865,13 @@
       <c r="CX7" s="12"/>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5031,11 +4971,13 @@
       <c r="CX8" s="12"/>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5135,11 +5077,13 @@
       <c r="CX9" s="12"/>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
+      <c r="A10" s="64" t="s">
+        <v>96</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5239,11 +5183,11 @@
       <c r="CX10" s="12"/>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5343,11 +5287,11 @@
       <c r="CX11" s="12"/>
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5447,11 +5391,11 @@
       <c r="CX12" s="12"/>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5555,7 +5499,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5656,7 +5600,7 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5756,11 +5700,11 @@
       <c r="CX15" s="12"/>
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5860,11 +5804,11 @@
       <c r="CX16" s="12"/>
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5964,11 +5908,11 @@
       <c r="CX17" s="12"/>
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -6169,46 +6113,46 @@
     </row>
     <row r="20" spans="1:102" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="46"/>
+      <c r="B21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>23</v>
+      <c r="A22" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -6217,42 +6161,31 @@
         <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:102" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
@@ -6265,9 +6198,6 @@
     </row>
     <row r="32" spans="1:102" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6276,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6288,8 +6218,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>27</v>
+      <c r="A1" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6313,8 +6243,8 @@
       <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>26</v>
+      <c r="A2" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -6338,11 +6268,11 @@
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -6361,236 +6291,247 @@
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="32"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -6609,12 +6550,12 @@
       <c r="U19" s="12"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -6632,16 +6573,16 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="2"/>
@@ -6649,25 +6590,23 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="49" t="s">
-        <v>23</v>
+      <c r="A22" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6678,632 +6617,615 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="17">
-        <f>I23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17"/>
+      <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="17">
-        <v>5</v>
-      </c>
-      <c r="C24" s="17">
-        <v>5</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
     </row>
     <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-    </row>
-    <row r="30" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-    </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-    </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
     </row>
     <row r="48" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+    </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -7312,13 +7234,13 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="M61" s="42"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -7327,11 +7249,11 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="43"/>
+      <c r="M62" s="16"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
@@ -7342,11 +7264,11 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="17"/>
+      <c r="M63" s="16"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
@@ -7357,11 +7279,11 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="17"/>
+      <c r="M64" s="16"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
@@ -7372,11 +7294,11 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="17"/>
+      <c r="M65" s="16"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
@@ -7387,11 +7309,11 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="17"/>
+      <c r="M66" s="16"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
@@ -7402,11 +7324,11 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="17"/>
+      <c r="M67" s="16"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
@@ -7417,11 +7339,11 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="17"/>
+      <c r="M68" s="16"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
@@ -7432,11 +7354,11 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="17"/>
+      <c r="M69" s="16"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
@@ -7447,26 +7369,11 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="M70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7475,10 +7382,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7487,8 +7394,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>17</v>
+      <c r="A1" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -7509,8 +7416,8 @@
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
+      <c r="A2" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -7531,11 +7438,11 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7551,23 +7458,23 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -7575,79 +7482,87 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="31"/>
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="31"/>
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="32"/>
+      <c r="M8" s="31"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="32"/>
+      <c r="M9" s="31"/>
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -7655,15 +7570,15 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="31"/>
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -7671,15 +7586,15 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="31"/>
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -7687,15 +7602,15 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="31"/>
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -7703,15 +7618,15 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="31"/>
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -7719,15 +7634,15 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="31"/>
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -7735,15 +7650,15 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="31"/>
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -7751,15 +7666,15 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
@@ -7767,35 +7682,35 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="29"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -7811,12 +7726,12 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -7834,14 +7749,14 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="2"/>
@@ -7851,21 +7766,18 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
@@ -7880,64 +7792,46 @@
       <c r="M22" s="2"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="52">
-        <f>-0.2</f>
-        <v>-0.2</v>
-      </c>
-      <c r="C23" s="52">
-        <f t="shared" ref="C23" si="0">-0.2</f>
-        <v>-0.2</v>
-      </c>
-      <c r="D23" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="B23" s="50">
+        <f>-0.3</f>
+        <v>-0.3</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -7951,12 +7845,6 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E26" s="1"/>
@@ -7993,13 +7881,6 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
